--- a/biology/Botanique/Aronia_melanocarpa/Aronia_melanocarpa.xlsx
+++ b/biology/Botanique/Aronia_melanocarpa/Aronia_melanocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aronie à fruits noirs, Aronia noir, Aronia à fruits noirs
 Aronia melanocarpa, l'Aronia noir ou Aronia à fruits noirs, est une espèce de plantes à fleurs de la famille des Rosacées indigène de l'Est de l'Amérique du Nord que l'on retrouve du Canada jusqu'au centre des États-Unis, de Terre-Neuve à l'Ontario et au Minnesota vers l'ouest, au sud jusqu'à l'Arkansas, l'Alabama et la Géorgie. Cette plante fut introduite et cultivée en Europe.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste au feuillage lustré vert foncé qui prend une coloration rouge à l'automne; il croît bien au soleil et à la mi ombre sous la forme de talles par des tiges qui montent des racines, ses fleurs en corymbes sont blanches ou roses, elles apparaissent à la fin du printemps et produisent des fruits noirs en septembre. Certains oiseaux consomment les baies.
 </t>
